--- a/sample_sheet.xlsx
+++ b/sample_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="To_fill" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Output file that will contain the other merged files. All the path must be included. Note that this MUST BE the last populated column of the Excel file, and that the column name MUST BE “Output_file”.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33,6 +56,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">File_1 that wants to be merged. All the path must be included. </t>
         </r>
@@ -45,6 +69,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">File_2 that wants to be merged. All the path must be included. </t>
         </r>
@@ -57,6 +82,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">File_3 that wants to be merged. All the path must be included. </t>
         </r>
@@ -69,6 +95,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">File_n that wants to be merged. All the path must be included. Please include as many columns as necessary.</t>
         </r>
@@ -81,8 +108,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Output file that will contain the other merged files. All the path must be included. Note that this MUST BE the last populated column of the Excel file, and that the column name MUST BE “Output_file”.</t>
+          <t xml:space="preserve">Output file that will contain the other merged files. All the path must be included. Note that this MUST BE the last populated column of the Excel file, and that the column name MUST BE “Output_name”.</t>
         </r>
       </text>
     </comment>
@@ -91,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="451">
   <si>
     <t xml:space="preserve">File_1</t>
   </si>
@@ -102,12 +130,1323 @@
     <t xml:space="preserve">File_3</t>
   </si>
   <si>
+    <t xml:space="preserve">File_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/1_S1_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/1_S1_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/1_S1_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/1_S1_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/1_S1_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/1_S1_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/1_S1_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/1_S1_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/1_S1_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/1_S1_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/1_S1_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/1_S1_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/1_S1_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/1_S1_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/1_S1_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/1_S1_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/1_S1_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/1_S1_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/2_S2_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/2_S2_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/2_S2_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/2_S2_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/2_S2_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/2_S2_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/2_S2_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/2_S2_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/2_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/2_S2_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/2_S2_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/2_S2_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/2_S2_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/2_S2_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/2_S2_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/2_S2_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/2_S2_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/2_S2_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/4_S3_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/4_S3_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/4_S3_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/4_S3_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/4_S3_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/4_S3_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/4_S3_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/4_S3_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/4_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/4_S3_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/4_S3_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/4_S3_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/4_S3_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/4_S3_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/4_S3_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/4_S3_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/4_S3_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/4_S3_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/5_S4_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/5_S4_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/5_S4_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/5_S4_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/5_S4_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/5_S4_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/5_S4_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/5_S4_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/5_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/5_S4_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/5_S4_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/5_S4_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/5_S4_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/5_S4_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/5_S4_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/5_S4_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/5_S4_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/5_S4_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/6_S5_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/6_S5_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/6_S5_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/6_S5_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/6_S5_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/6_S5_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/6_S5_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/6_S5_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/6_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/6_S5_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/6_S5_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/6_S5_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/6_S5_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/6_S5_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/6_S5_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/6_S5_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/6_S5_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/6_S5_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/7_S6_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/7_S6_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/7_S6_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/7_S6_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/7_S6_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/7_S6_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/7_S6_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/7_S6_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/7_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/7_S6_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/7_S6_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/7_S6_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/7_S6_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/7_S6_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/7_S6_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/7_S6_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/7_S6_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/7_S6_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/9_S7_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/9_S7_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/9_S7_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/9_S7_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/9_S7_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/9_S7_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/9_S7_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/9_S7_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/9_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/9_S7_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/9_S7_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/9_S7_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/9_S7_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/9_S7_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/9_S7_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/9_S7_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/9_S7_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/9_S7_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/10_S8_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/10_S8_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/10_S8_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/10_S8_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/10_S8_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/10_S8_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/10_S8_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/10_S8_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/10_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/10_S8_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/10_S8_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/10_S8_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/10_S8_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/10_S8_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/10_S8_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/10_S8_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/10_S8_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/10_S8_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/12_S9_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/12_S9_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/12_S9_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/12_S9_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/12_S9_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/12_S9_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/12_S9_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/12_S9_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/12_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/12_S9_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/12_S9_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/12_S9_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/12_S9_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/12_S9_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/12_S9_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/12_S9_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/12_S9_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/12_S9_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/14_S10_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/14_S10_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/14_S10_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/14_S10_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/14_S10_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/14_S10_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/14_S10_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/14_S10_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/14_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/14_S10_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/14_S10_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/14_S10_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/14_S10_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/14_S10_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/14_S10_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/14_S10_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/14_S10_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/14_S10_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/15_S11_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/15_S11_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/15_S11_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/15_S11_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/15_S11_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/15_S11_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/15_S11_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/15_S11_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/15_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/15_S11_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/15_S11_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/15_S11_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/15_S11_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/15_S11_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/15_S11_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/15_S11_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/15_S11_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/15_S11_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/18_S12_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/18_S12_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/18_S12_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/18_S12_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/18_S12_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/18_S12_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/18_S12_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/18_S12_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/18_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/18_S12_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/18_S12_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/18_S12_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/18_S12_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/18_S12_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/18_S12_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/18_S12_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/18_S12_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/18_S12_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/19_S13_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/19_S13_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/19_S13_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/19_S13_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/19_S13_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/19_S13_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/19_S13_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/19_S13_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/19_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/19_S13_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/19_S13_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/19_S13_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/19_S13_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/19_S13_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/19_S13_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/19_S13_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/19_S13_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/19_S13_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/20_S14_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/20_S14_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/20_S14_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/20_S14_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/20_S14_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/20_S14_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/20_S14_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/20_S14_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/20_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/20_S14_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/20_S14_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/20_S14_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/20_S14_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/20_S14_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/20_S14_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/20_S14_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/20_S14_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/20_S14_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/21_S15_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/21_S15_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/21_S15_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/21_S15_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/21_S15_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/21_S15_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/21_S15_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/21_S15_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/21_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/21_S15_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/21_S15_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/21_S15_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/21_S15_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/21_S15_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/21_S15_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/21_S15_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/21_S15_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/21_S15_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/22_S16_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/22_S16_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/22_S16_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/22_S16_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/22_S16_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/22_S16_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/22_S16_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/22_S16_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/22_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/22_S16_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/22_S16_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/22_S16_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/22_S16_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/22_S16_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/22_S16_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/22_S16_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/22_S16_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/22_S16_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/23_S17_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/23_S17_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/23_S17_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/23_S17_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/23_S17_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/23_S17_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/23_S17_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/23_S17_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/23_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/23_S17_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/23_S17_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/23_S17_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/23_S17_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/23_S17_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/23_S17_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/23_S17_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/23_S17_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/23_S17_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/24_S18_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/24_S18_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/24_S18_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/24_S18_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/24_S18_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/24_S18_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/24_S18_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/24_S18_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/24_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/24_S18_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/24_S18_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/24_S18_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/24_S18_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/24_S18_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/24_S18_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/24_S18_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/24_S18_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/24_S18_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/25_S19_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/25_S19_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/25_S19_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/25_S19_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/25_S19_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/25_S19_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/25_S19_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/25_S19_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/25_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/25_S19_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/25_S19_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/25_S19_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/25_S19_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/25_S19_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/25_S19_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/25_S19_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/25_S19_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/25_S19_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/26_S20_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/26_S20_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/26_S20_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/26_S20_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/26_S20_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/26_S20_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/26_S20_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/26_S20_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/26_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/26_S20_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/26_S20_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/26_S20_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/26_S20_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/26_S20_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/26_S20_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/26_S20_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/26_S20_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/26_S20_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/27_S21_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/27_S21_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/27_S21_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/27_S21_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/27_S21_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/27_S21_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/27_S21_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/27_S21_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/27_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/27_S21_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/27_S21_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/27_S21_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/27_S21_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/27_S21_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/27_S21_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/27_S21_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/27_S21_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/27_S21_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/28_S22_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/28_S22_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/28_S22_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/28_S22_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/28_S22_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/28_S22_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/28_S22_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/28_S22_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/28_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/28_S22_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/28_S22_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/28_S22_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/28_S22_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/28_S22_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/28_S22_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/28_S22_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/28_S22_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/28_S22_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/29_S23_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/29_S23_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/29_S23_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/29_S23_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/29_S23_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/29_S23_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/29_S23_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/29_S23_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/29_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/29_S23_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/29_S23_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/29_S23_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/29_S23_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/29_S23_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/29_S23_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/29_S23_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/29_S23_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/29_S23_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/32_S24_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/32_S24_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/32_S24_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/32_S24_L002_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/32_S24_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/32_S24_L003_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/32_S24_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/32_S24_L004_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/32_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/32_S24_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/32_S24_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/32_S24_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/32_S24_L002_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/32_S24_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/32_S24_L003_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN1/32_S24_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/results_JosepN2/32_S24_L004_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/bicoh/MARGenomics/20240116_JNomdedeu_RNAseq_CEBPa_WT1/rawData/RNA_Seq_CRG_Resultados/merged_files/32_S24_R2_001.fastq.gz</t>
+  </si>
+  <si>
     <t xml:space="preserve">File_n</t>
   </si>
   <si>
-    <t xml:space="preserve">Output_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">/bicoh/MARGenomics/20230510_IHernandez_Disquerina_RNASeq/rawData/siControl-1_S1_L001_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -133,9 +1472,6 @@
   </si>
   <si>
     <t xml:space="preserve">/bicoh/MARGenomics/Development/RNASeq/TEST/rawData/siControl-1_S1_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output_file</t>
   </si>
 </sst>
 </file>
@@ -145,7 +1481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -174,11 +1510,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,19 +1584,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="127.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="127.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="119.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,10 +1613,18 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -307,85 +1644,1395 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>440</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -395,6 +3042,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -405,11 +3053,11 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -422,42 +3070,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>441</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>442</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>443</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>445</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>447</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>449</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
